--- a/my-app/regionseng/11/transport and communication/number of motor vehicles.xlsx
+++ b/my-app/regionseng/11/transport and communication/number of motor vehicles.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
@@ -37,7 +37,7 @@
     <t>Of which:</t>
   </si>
   <si>
-    <t>Number of motor vehicles in Mtskheta-mtianeti Region</t>
+    <t>Number of motor vehicles in Tbilisi</t>
   </si>
   <si>
     <t>Lorries and trucks (including pick-ups and vans)</t>
@@ -53,10 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,17 +78,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="LiterNusx"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -145,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -154,21 +141,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -177,16 +153,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -195,10 +164,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,47 +472,47 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.85546875" customWidth="1"/>
     <col min="2" max="4" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4">
         <v>2014</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>2015</v>
       </c>
       <c r="D3" s="2">
@@ -569,217 +534,217 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13">
-        <v>27.3</v>
+      <c r="B4" s="8">
+        <v>365.6</v>
       </c>
       <c r="C4" s="8">
-        <v>29.4</v>
-      </c>
-      <c r="D4" s="3">
-        <v>31.8</v>
-      </c>
-      <c r="E4" s="14">
-        <v>33.6</v>
-      </c>
-      <c r="F4" s="1">
-        <v>35.4</v>
-      </c>
-      <c r="G4" s="21">
-        <v>37</v>
-      </c>
-      <c r="H4" s="1">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="I4" s="20">
-        <v>41.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="12" t="s">
+        <v>398.3</v>
+      </c>
+      <c r="D4" s="8">
+        <v>428.7</v>
+      </c>
+      <c r="E4" s="8">
+        <v>448.5</v>
+      </c>
+      <c r="F4" s="8">
+        <v>469.3</v>
+      </c>
+      <c r="G4" s="8">
+        <v>482.7</v>
+      </c>
+      <c r="H4" s="8">
+        <v>500.3</v>
+      </c>
+      <c r="I4" s="8">
+        <v>508.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="11" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9">
-        <v>3.4</v>
+      <c r="B6" s="8">
+        <v>22.4</v>
       </c>
       <c r="C6" s="8">
-        <v>3.6</v>
-      </c>
-      <c r="D6" s="4">
-        <v>3.7</v>
-      </c>
-      <c r="E6" s="15">
-        <v>3.7</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="H6" s="21">
-        <v>4</v>
-      </c>
-      <c r="I6" s="20">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>24.1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>25.1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>25.4</v>
+      </c>
+      <c r="F6" s="8">
+        <v>25.5</v>
+      </c>
+      <c r="G6" s="8">
+        <v>25.7</v>
+      </c>
+      <c r="H6" s="8">
+        <v>26.3</v>
+      </c>
+      <c r="I6" s="8">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="E7" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="I7" s="20">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="B7" s="8">
+        <v>15.7</v>
+      </c>
+      <c r="C7" s="8">
+        <v>15.6</v>
+      </c>
+      <c r="D7" s="8">
+        <v>15.6</v>
+      </c>
+      <c r="E7" s="8">
+        <v>15.6</v>
+      </c>
+      <c r="F7" s="8">
+        <v>15.3</v>
+      </c>
+      <c r="G7" s="8">
+        <v>15.4</v>
+      </c>
+      <c r="H7" s="8">
+        <v>15.7</v>
+      </c>
+      <c r="I7" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C8" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="E8" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="I8" s="20">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="B8" s="8">
+        <v>12.2</v>
+      </c>
+      <c r="C8" s="8">
+        <v>13.1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>14.6</v>
+      </c>
+      <c r="E8" s="8">
+        <v>15.8</v>
+      </c>
+      <c r="F8" s="8">
+        <v>17</v>
+      </c>
+      <c r="G8" s="8">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H8" s="8">
+        <v>19.2</v>
+      </c>
+      <c r="I8" s="8">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="9">
-        <v>21.5</v>
-      </c>
-      <c r="C9" s="9">
-        <v>23.3</v>
-      </c>
-      <c r="D9" s="5">
-        <v>25.6</v>
-      </c>
-      <c r="E9" s="15">
-        <v>27.2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>28.8</v>
-      </c>
-      <c r="G9" s="1">
-        <v>30.2</v>
-      </c>
-      <c r="H9" s="1">
-        <v>31.8</v>
-      </c>
-      <c r="I9" s="20">
-        <v>33.799999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="10"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="17" t="s">
+      <c r="B9" s="8">
+        <v>315.3</v>
+      </c>
+      <c r="C9" s="8">
+        <v>345.5</v>
+      </c>
+      <c r="D9" s="8">
+        <v>373.4</v>
+      </c>
+      <c r="E9" s="8">
+        <v>391.7</v>
+      </c>
+      <c r="F9" s="8">
+        <v>411.5</v>
+      </c>
+      <c r="G9" s="8">
+        <v>423.1</v>
+      </c>
+      <c r="H9" s="8">
+        <v>439.1</v>
+      </c>
+      <c r="I9" s="8">
+        <v>448.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="17" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="17" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A12:I12"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
